--- a/Day 6 - Deployment Preparation and Staging/CVS Report.xlsx
+++ b/Day 6 - Deployment Preparation and Staging/CVS Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Market Place Hackathon\Day 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Market Place Hackathon\Day 6 - Deployment Preparation and Staging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB299E04-D0FA-4F51-B823-08E915F47310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AED6788-82F4-431D-8385-362E5D9D3584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,43 +25,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Test Case ID,Feature,Test Description,Steps,Expected Result,Actual Result,Status,Tester Name,Execution Date</t>
-  </si>
-  <si>
-    <t>TC001,Homepage,Verify the homepage loads correctly,1. Open the website URL,Homepage should display the logo, banner, and navigation links,Homepage loaded successfully with all elements visible,Pass,Ahmed Ali,2025-01-21</t>
-  </si>
-  <si>
-    <t>TC002,Menu Page,Verify menu items display correctly,1. Navigate to the "Menu" page; 2. Check the item list,All menu items should be listed with images and prices,Menu items loaded but some images failed to display,Fail,Ahmed Ali,2025-01-21</t>
-  </si>
-  <si>
-    <t>TC003,Blog Page,Verify blog posts display with correct titles,1. Navigate to the "Blog" page,All blog posts should load with proper titles and summaries,Blog posts loaded successfully,Pass,Ahmed Ali,2025-01-21</t>
-  </si>
-  <si>
-    <t>TC004,Shop Page,Verify product listings and links,1. Navigate to the "Shop" page; 2. Click on a product,Product list should load, and clicking on a product should redirect to the dynamic [slug] page,Shop page and [slug] pages work as expected,Pass,Ahmed Ali,2025-01-21</t>
-  </si>
-  <si>
-    <t>TC005,Dynamic Routing,Verify product [slug] pages,1. Open a product detail page via dynamic routing,Correct product details (title, description, price) should display,Product details displayed correctly,Pass,Ahmed Ali,2025-01-21</t>
-  </si>
-  <si>
-    <t>TC006,Cart Page,Verify add-to-cart functionality,1. Add a product to the cart; 2. Check the cart page,The added product should display in the cart with the correct price and quantity,Cart functionality works as expected,Pass,Ahmed Ali,2025-01-21</t>
-  </si>
-  <si>
-    <t>TC007,Contact Page,Verify contact form functionality,1. Fill in the contact form; 2. Submit the form,A success message should display,Contact form submitted successfully,Pass,Ahmed Ali,2025-01-21</t>
-  </si>
-  <si>
-    <t>TC008,Responsive Design,Verify responsiveness across devices,1. Test on desktop, tablet, and mobile,Layout should adjust for each device correctly,Responsive design works for desktop and tablet, but mobile layout has issues,Fail,Ahmed Ali,2025-01-21</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>Validate product listing</t>
+  </si>
+  <si>
+    <t>Test API error handling</t>
+  </si>
+  <si>
+    <t>Check cart functionality</t>
+  </si>
+  <si>
+    <t>Test form validation</t>
+  </si>
+  <si>
+    <t>Verify HTTPS connection</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>Open shop page &gt; Verify products</t>
+  </si>
+  <si>
+    <t>Products displayed</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>No issues found</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Disconnect API &gt; Refresh page</t>
+  </si>
+  <si>
+    <t>Add item to cart &gt; Verify cart</t>
+  </si>
+  <si>
+    <t>Submit form with empty fields</t>
+  </si>
+  <si>
+    <t>Open site &gt; Check HTTPS status</t>
+  </si>
+  <si>
+    <t>Show fall back message</t>
+  </si>
+  <si>
+    <t>Cart Update correctly</t>
+  </si>
+  <si>
+    <t>Display error message</t>
+  </si>
+  <si>
+    <t>HTTPS enabled</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Handled gracefully</t>
+  </si>
+  <si>
+    <t>Works as expected</t>
+  </si>
+  <si>
+    <t>Missing validation check</t>
+  </si>
+  <si>
+    <t>Secure connection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,8 +179,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,63 +462,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>